--- a/biology/Biochimie/Caséine_alpha_s2/Caséine_alpha_s2.xlsx
+++ b/biology/Biochimie/Caséine_alpha_s2/Caséine_alpha_s2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_alpha_s2</t>
+          <t>Caséine_alpha_s2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La caséine αS2 est une protéine du lait de vache de 207 acides aminés et ayant une masse moléculaire de 25 kDa. Elle représente de 12 à 16 % de la masse de caséines du lait, soit de 4 à 5 g/L[1]. C'est la plus hydrophile des caséines. Elle précipite à température supérieure à 20 °C ainsi qu'à une concentration molaire en cations de calcium voisine de 6 mmol·l-1.
+La caséine αS2 est une protéine du lait de vache de 207 acides aminés et ayant une masse moléculaire de 25 kDa. Elle représente de 12 à 16 % de la masse de caséines du lait, soit de 4 à 5 g/L. C'est la plus hydrophile des caséines. Elle précipite à température supérieure à 20 °C ainsi qu'à une concentration molaire en cations de calcium voisine de 6 mmol·l-1.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_alpha_s2</t>
+          <t>Caséine_alpha_s2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure primaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">KNTMEHVSSS EESIISQETY KQEKNMAINP SKEQLCSTFC KEVVRNANEE EYSIGSSSEE SAEVATEEVK ITVDDKHYQK
 1        10         20         30         40         50         60         70         80 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_alpha_s2</t>
+          <t>Caséine_alpha_s2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Peptides dérivés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fragment f.150-188 de la caséine αS2 est appelé casocidine-I et possède des propriétés bactériostatiques. Le décapeptide f.198-207 est mitogène, il peut être obtenu par hydrolyse trypsique de la caséine[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fragment f.150-188 de la caséine αS2 est appelé casocidine-I et possède des propriétés bactériostatiques. Le décapeptide f.198-207 est mitogène, il peut être obtenu par hydrolyse trypsique de la caséine.
 </t>
         </is>
       </c>
